--- a/R/analysis/data/Genuine_summary_full_pts.xlsx
+++ b/R/analysis/data/Genuine_summary_full_pts.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve">Pt.id</t>
   </si>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">shame</t>
+    <t xml:space="preserve">sham</t>
   </si>
   <si>
     <t xml:space="preserve">51</t>
@@ -218,10 +218,94 @@
     <t xml:space="preserve">52</t>
   </si>
   <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
     <t xml:space="preserve">54</t>
   </si>
   <si>
     <t xml:space="preserve">Exp2rM1-rIFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
   </si>
   <si>
     <t xml:space="preserve">d_delta</t>
@@ -2414,34 +2498,1014 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.30069876075202</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>67</v>
       </c>
-      <c r="C53" t="n">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D54" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.34897950039216</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.831710016411633</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.82483913057209</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.475859630179926</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.30069876075202</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="I55" t="n">
         <v>0.355850386231707</v>
       </c>
-      <c r="E53" t="n">
+      <c r="J55" t="n">
+        <v>2.68446992472855</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.831710016411633</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.20861029454863</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.355850386231707</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.475859630179926</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="K56" t="n">
         <v>0.355850386231707</v>
       </c>
-      <c r="F53" t="n">
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.355850386231707</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.383771163976538</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="G53" t="n">
+      <c r="D58" t="n">
+        <v>0.831710016411633</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>1.46898874434038</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H58" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.831710016411633</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.21548118038817</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.34897950039216</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.34897950039216</v>
+      </c>
+      <c r="G59" t="n">
         <v>1.46898874434038</v>
       </c>
-      <c r="I53" t="n">
+      <c r="H59" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.355850386231707</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.318639363964375</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.831710016411633</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.21548118038817</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.30069876075202</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.34897950039216</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.30069876075202</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.20861029454863</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.68446992472855</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.68446992472855</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.34897950039216</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.68446992472855</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.82483913057209</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.355850386231707</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.831710016411633</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-1.15034938037601</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.831710016411633</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.318639363964375</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.831710016411633</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.859630794156464</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.475859630179926</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.475859630179926</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.383771163976538</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.383771163976538</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.831710016411633</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.355850386231707</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.355850386231707</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="I66" t="n">
         <v>-0.355850386231707</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J66" t="n">
         <v>0.831710016411633</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K66" t="n">
         <v>0.318639363964375</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.34897950039216</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.318639363964375</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.355850386231707</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.993129114160457</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.475859630179926</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.674489750196082</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.355850386231707</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.355850386231707</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.859630794156464</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.318639363964375</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.68446992472855</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.46898874434038</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.34897950039216</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.30069876075202</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.85275990831692</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.30069876075202</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.30069876075202</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2.30069876075202</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.68446992472855</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.82483913057209</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.20861029454863</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.34897950039216</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.355850386231707</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.831710016411633</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.475859630179926</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.859630794156464</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.475859630179926</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.318639363964375</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.831710016411633</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.318639363964375</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.355850386231707</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.318639363964375</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.859630794156464</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.34897950039216</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.34897950039216</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.34897950039216</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.993129114160457</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.475859630179926</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.20861029454863</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.383771163976538</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.20861029454863</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.85275990831692</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.355850386231707</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.859630794156464</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.355850386231707</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.859630794156464</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.674489750196082</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.318639363964375</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.355850386231707</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.355850386231707</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.30069876075202</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3.06824108870509</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.21548118038817</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.34897950039216</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.68446992472855</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.53412054435255</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.63727872792875</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.82483913057209</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.993129114160457</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.20861029454863</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.46898874434038</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.674489750196082</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.859630794156464</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.831710016411633</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.46898874434038</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.475859630179926</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.85275990831692</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.15034938037601</v>
       </c>
     </row>
   </sheetData>
@@ -4283,34 +5347,1014 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.415855008205816</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.607740590194085</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.53412054435255</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>67</v>
       </c>
-      <c r="C53" t="n">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.177925193115853</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.53412054435255</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.237929815089963</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.177925193115853</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.237929815089963</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.912419565286045</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.237929815089963</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.496564557080228</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.191885581988269</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.15034938037601</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.415855008205816</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.429815397078232</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.912419565286045</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.607740590194085</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-1.34223496236428</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="n">
         <v>-0.674489750196082</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D58" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-1.53412054435255</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.415855008205816</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.237929815089963</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.607740590194085</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.415855008205816</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.607740590194085</v>
+      </c>
+      <c r="K59" t="n">
         <v>-0.496564557080228</v>
       </c>
-      <c r="E53" t="n">
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.159319681982188</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.607740590194085</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.177925193115853</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.237929815089963</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.237929815089963</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.429815397078232</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.191885581988269</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.191885581988269</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.191885581988269</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.237929815089963</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.674489750196082</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.237929815089963</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.318639363964375</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.674489750196082</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.575174690188004</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.159319681982188</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.318639363964375</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-1.53412054435255</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-1.10430514727431</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.912419565286045</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.912419565286045</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-1.34223496236428</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-1.34223496236428</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-1.15034938037601</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.674489750196082</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.496564557080228</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F66" t="n">
         <v>-0.674489750196082</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G66" t="n">
         <v>-0.415855008205816</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H66" t="n">
         <v>0.415855008205816</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I66" t="n">
         <v>-0.496564557080228</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J66" t="n">
         <v>-0.734494372170192</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K66" t="n">
         <v>0.159319681982188</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.318639363964375</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.177925193115853</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.159319681982188</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.496564557080228</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.177925193115853</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.337244875098041</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.912419565286045</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.496564557080228</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-1.10430514727431</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.159319681982188</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.237929815089963</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.191885581988269</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.415855008205816</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.607740590194085</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.415855008205816</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.607740590194085</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.237929815089963</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.607740590194085</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.607740590194085</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.237929815089963</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.575174690188004</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.767060272176273</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.607740590194085</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.191885581988269</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.237929815089963</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.429815397078232</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.237929815089963</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.415855008205816</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.415855008205816</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.237929815089963</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.674489750196082</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-1.15034938037601</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.912419565286045</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-1.10430514727431</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1.53412054435255</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.912419565286045</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.159319681982188</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.734494372170192</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.159319681982188</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.415855008205816</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.159319681982188</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-1.10430514727431</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.237929815089963</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.674489750196082</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.912419565286045</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.429815397078232</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.415855008205816</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.15034938037601</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.237929815089963</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.34223496236428</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.429815397078232</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.607740590194085</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.415855008205816</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-1.10430514727431</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.607740590194085</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-1.10430514727431</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.337244875098041</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.177925193115853</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.318639363964375</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.415855008205816</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.575174690188004</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1.15034938037601</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.159319681982188</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.496564557080228</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.177925193115853</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-0.926379954158461</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.191885581988269</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.237929815089963</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.767060272176273</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.177925193115853</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.429815397078232</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.415855008205816</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.337244875098041</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.10430514727431</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.575174690188004</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.734494372170192</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.415855008205816</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.607740590194085</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.912419565286045</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.607740590194085</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.575174690188004</v>
       </c>
     </row>
   </sheetData>
@@ -4335,28 +6379,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -4841,1122 +6885,2082 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0386070517917023</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0524085458985437</v>
+      </c>
+      <c r="E17" t="n">
+        <v>21</v>
+      </c>
+      <c r="F17" t="n">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.244831457390064</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.181724126400316</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25</v>
-      </c>
-      <c r="F17" t="n">
-        <v>26</v>
-      </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I17" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J17" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.195517869172326</v>
+        <v>-0.244831457390064</v>
       </c>
       <c r="D18" t="n">
-        <v>0.173275900506492</v>
+        <v>0.181724126400316</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
+        <v>26</v>
+      </c>
+      <c r="G18" t="n">
         <v>28</v>
       </c>
-      <c r="G18" t="n">
-        <v>24</v>
-      </c>
       <c r="H18" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I18" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J18" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>0.582076332488105</v>
+        <v>-0.195517869172326</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.211028422625186</v>
+        <v>0.173275900506492</v>
       </c>
       <c r="E19" t="n">
+        <v>23</v>
+      </c>
+      <c r="F19" t="n">
+        <v>28</v>
+      </c>
+      <c r="G19" t="n">
         <v>24</v>
       </c>
-      <c r="F19" t="n">
-        <v>26</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9</v>
-      </c>
       <c r="H19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I19" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="J19" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21397461673</v>
+        <v>0.582076332488105</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.219402266731014</v>
+        <v>-0.211028422625186</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J20" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.161567861324816</v>
+        <v>0.21397461673</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.303365668051807</v>
+        <v>-0.219402266731014</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G21" t="n">
         <v>28</v>
       </c>
       <c r="H21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J21" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>0.105513316065913</v>
+        <v>-0.161567861324816</v>
       </c>
       <c r="D22" t="n">
-        <v>0.105863218693686</v>
+        <v>-0.303365668051807</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H22" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I22" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J22" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>0.189476717386706</v>
+        <v>0.105513316065913</v>
       </c>
       <c r="D23" t="n">
-        <v>0.378876673130665</v>
+        <v>0.105863218693686</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I23" t="n">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="J23" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="n">
-        <v>0.207233659688834</v>
+        <v>0.189476717386706</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0858598875422889</v>
+        <v>0.378876673130665</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="J24" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.395004898716242</v>
+        <v>0.207233659688834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.336120785426726</v>
+        <v>0.0858598875422889</v>
       </c>
       <c r="E25" t="n">
+        <v>30</v>
+      </c>
+      <c r="F25" t="n">
         <v>24</v>
       </c>
-      <c r="F25" t="n">
-        <v>19</v>
-      </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I25" t="n">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J25" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>0.284138314437312</v>
+        <v>0.395004898716242</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.664137286745931</v>
+        <v>0.336120785426726</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H26" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="J26" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.698444948556045</v>
+        <v>0.284138314437312</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0873338798413761</v>
+        <v>-0.664137286745931</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
         <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J27" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.15396641376917</v>
+        <v>-0.698444948556045</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0085285685232912</v>
+        <v>-0.0873338798413761</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J28" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.502066588869238</v>
+        <v>-0.15396641376917</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.251033294434619</v>
+        <v>-0.0085285685232912</v>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I29" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J29" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.73945728396259</v>
+        <v>-0.502066588869238</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.130089767545314</v>
+        <v>-0.251033294434619</v>
       </c>
       <c r="E30" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F30" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H30" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J30" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>0.318100243967764</v>
+        <v>0.73945728396259</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0311264006583693</v>
+        <v>-0.130089767545314</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H31" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I31" t="n">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="J31" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="n">
-        <v>0.237929815089963</v>
+        <v>0.318100243967764</v>
       </c>
       <c r="D32" t="n">
-        <v>0.407756684939765</v>
+        <v>0.0311264006583693</v>
       </c>
       <c r="E32" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F32" t="n">
         <v>29</v>
       </c>
       <c r="G32" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I32" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J32" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C33" t="n">
-        <v>0.244292337393452</v>
+        <v>0.237929815089963</v>
       </c>
       <c r="D33" t="n">
-        <v>0.155251188699419</v>
+        <v>0.407756684939765</v>
       </c>
       <c r="E33" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F33" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G33" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H33" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I33" t="n">
         <v>90</v>
       </c>
       <c r="J33" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0918742977113658</v>
+        <v>0.244292337393452</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.476291665930526</v>
+        <v>0.155251188699419</v>
       </c>
       <c r="E34" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F34" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G34" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I34" t="n">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J34" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0555118442755723</v>
+        <v>-0.0918742977113658</v>
       </c>
       <c r="D35" t="n">
-        <v>0.324297910664208</v>
+        <v>-0.476291665930526</v>
       </c>
       <c r="E35" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F35" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G35" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="J35" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>46</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0648104294942942</v>
+        <v>0.0555118442755723</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.271734640348201</v>
+        <v>0.324297910664208</v>
       </c>
       <c r="E36" t="n">
+        <v>19</v>
+      </c>
+      <c r="F36" t="n">
+        <v>18</v>
+      </c>
+      <c r="G36" t="n">
         <v>24</v>
       </c>
-      <c r="F36" t="n">
-        <v>27</v>
-      </c>
-      <c r="G36" t="n">
-        <v>27</v>
-      </c>
       <c r="H36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I36" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="J36" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0793099383633211</v>
+        <v>0.0648104294942942</v>
       </c>
       <c r="D37" t="n">
-        <v>0.266890169528531</v>
+        <v>-0.271734640348201</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n">
+        <v>27</v>
+      </c>
+      <c r="H37" t="n">
+        <v>17</v>
+      </c>
+      <c r="I37" t="n">
+        <v>95</v>
+      </c>
+      <c r="J37" t="n">
         <v>28</v>
-      </c>
-      <c r="H37" t="n">
-        <v>20</v>
-      </c>
-      <c r="I37" t="n">
-        <v>104</v>
-      </c>
-      <c r="J37" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
       <c r="C38" t="n">
-        <v>0.310341692139904</v>
+        <v>0.0793099383633211</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0758609077066307</v>
+        <v>0.266890169528531</v>
       </c>
       <c r="E38" t="n">
+        <v>30</v>
+      </c>
+      <c r="F38" t="n">
         <v>26</v>
       </c>
-      <c r="F38" t="n">
-        <v>27</v>
-      </c>
       <c r="G38" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H38" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="n">
-        <v>0.324302081012319</v>
+        <v>0.310341692139904</v>
       </c>
       <c r="D39" t="n">
-        <v>0.534745533962802</v>
+        <v>0.0758609077066307</v>
       </c>
       <c r="E39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F39" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G39" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H39" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I39" t="n">
         <v>97</v>
       </c>
       <c r="J39" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
       <c r="C40" t="n">
-        <v>0.186222864940325</v>
+        <v>0.324302081012319</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0508601718114604</v>
+        <v>0.534745533962802</v>
       </c>
       <c r="E40" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G40" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H40" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I40" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J40" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41" t="n">
-        <v>0.247236741004907</v>
+        <v>0.186222864940325</v>
       </c>
       <c r="D41" t="n">
-        <v>0.103616829844417</v>
+        <v>-0.0508601718114604</v>
       </c>
       <c r="E41" t="n">
+        <v>32</v>
+      </c>
+      <c r="F41" t="n">
+        <v>26</v>
+      </c>
+      <c r="G41" t="n">
+        <v>29</v>
+      </c>
+      <c r="H41" t="n">
         <v>25</v>
       </c>
-      <c r="F41" t="n">
-        <v>33</v>
-      </c>
-      <c r="G41" t="n">
-        <v>26</v>
-      </c>
-      <c r="H41" t="n">
-        <v>16</v>
-      </c>
       <c r="I41" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J41" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0963670754099033</v>
+        <v>0.247236741004907</v>
       </c>
       <c r="D42" t="n">
-        <v>0.096636635408209</v>
+        <v>0.103616829844417</v>
       </c>
       <c r="E42" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F42" t="n">
+        <v>33</v>
+      </c>
+      <c r="G42" t="n">
+        <v>26</v>
+      </c>
+      <c r="H42" t="n">
+        <v>16</v>
+      </c>
+      <c r="I42" t="n">
+        <v>100</v>
+      </c>
+      <c r="J42" t="n">
         <v>34</v>
-      </c>
-      <c r="G42" t="n">
-        <v>30</v>
-      </c>
-      <c r="H42" t="n">
-        <v>13</v>
-      </c>
-      <c r="I42" t="n">
-        <v>99</v>
-      </c>
-      <c r="J42" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
       <c r="C43" t="n">
-        <v>0.257931355748</v>
+        <v>0.0963670754099033</v>
       </c>
       <c r="D43" t="n">
-        <v>0.177579460836191</v>
+        <v>0.096636635408209</v>
       </c>
       <c r="E43" t="n">
+        <v>22</v>
+      </c>
+      <c r="F43" t="n">
         <v>34</v>
       </c>
-      <c r="F43" t="n">
-        <v>29</v>
-      </c>
       <c r="G43" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H43" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I43" t="n">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="J43" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
       </c>
       <c r="C44" t="n">
-        <v>0.456557894777435</v>
+        <v>0.257931355748</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.102764090664768</v>
+        <v>0.177579460836191</v>
       </c>
       <c r="E44" t="n">
+        <v>34</v>
+      </c>
+      <c r="F44" t="n">
+        <v>29</v>
+      </c>
+      <c r="G44" t="n">
+        <v>26</v>
+      </c>
+      <c r="H44" t="n">
         <v>24</v>
       </c>
-      <c r="F44" t="n">
-        <v>25</v>
-      </c>
-      <c r="G44" t="n">
-        <v>23</v>
-      </c>
-      <c r="H44" t="n">
-        <v>17</v>
-      </c>
       <c r="I44" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="J44" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="n">
-        <v>0.34274690688705</v>
+        <v>0.456557894777435</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0105053973742544</v>
+        <v>-0.102764090664768</v>
       </c>
       <c r="E45" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F45" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H45" t="n">
         <v>17</v>
       </c>
       <c r="I45" t="n">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J45" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>0.749303329874145</v>
+        <v>0.34274690688705</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.21603178821043</v>
+        <v>0.0105053973742544</v>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F46" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G46" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I46" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0106946147430929</v>
+        <v>0.749303329874145</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0586145532912099</v>
+        <v>-0.21603178821043</v>
       </c>
       <c r="E47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G47" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I47" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J47" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>0.314146586265837</v>
+        <v>0.0106946147430929</v>
       </c>
       <c r="D48" t="n">
-        <v>0.108459510170727</v>
+        <v>0.0586145532912099</v>
       </c>
       <c r="E48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F48" t="n">
         <v>24</v>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H48" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I48" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="J48" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0639618606627563</v>
+        <v>0.314146586265837</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0319809303313782</v>
+        <v>0.108459510170727</v>
       </c>
       <c r="E49" t="n">
+        <v>23</v>
+      </c>
+      <c r="F49" t="n">
         <v>24</v>
       </c>
-      <c r="F49" t="n">
-        <v>26</v>
-      </c>
       <c r="G49" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I49" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J49" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>63</v>
       </c>
       <c r="C50" t="n">
-        <v>0.326546679368228</v>
+        <v>0.0639618606627563</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.15396641376917</v>
+        <v>-0.0319809303313782</v>
       </c>
       <c r="E50" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G50" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H50" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I50" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J50" t="n">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>63</v>
       </c>
       <c r="C51" t="n">
-        <v>0.101020538367375</v>
+        <v>0.326546679368228</v>
       </c>
       <c r="D51" t="n">
-        <v>0.077413452141825</v>
+        <v>-0.15396641376917</v>
       </c>
       <c r="E51" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F51" t="n">
         <v>29</v>
       </c>
       <c r="G51" t="n">
+        <v>30</v>
+      </c>
+      <c r="H51" t="n">
+        <v>11</v>
+      </c>
+      <c r="I51" t="n">
+        <v>98</v>
+      </c>
+      <c r="J51" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.101020538367375</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.077413452141825</v>
+      </c>
+      <c r="E52" t="n">
+        <v>26</v>
+      </c>
+      <c r="F52" t="n">
+        <v>29</v>
+      </c>
+      <c r="G52" t="n">
         <v>32</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H52" t="n">
         <v>26</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I52" t="n">
         <v>113</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J52" t="n">
         <v>59</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.333826756406006</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.684649415290674</v>
+      </c>
+      <c r="E53" t="n">
+        <v>21</v>
+      </c>
+      <c r="F53" t="n">
+        <v>24</v>
+      </c>
+      <c r="G53" t="n">
+        <v>32</v>
+      </c>
+      <c r="H53" t="n">
+        <v>23</v>
+      </c>
+      <c r="I53" t="n">
+        <v>100</v>
+      </c>
+      <c r="J53" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.171023550815752</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.127763036066578</v>
+      </c>
+      <c r="E54" t="n">
+        <v>20</v>
+      </c>
+      <c r="F54" t="n">
+        <v>24</v>
+      </c>
+      <c r="G54" t="n">
+        <v>29</v>
+      </c>
+      <c r="H54" t="n">
+        <v>15</v>
+      </c>
+      <c r="I54" t="n">
+        <v>88</v>
+      </c>
+      <c r="J54" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.248085309836445</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0145756811503831</v>
+      </c>
+      <c r="E55" t="n">
+        <v>26</v>
+      </c>
+      <c r="F55" t="n">
+        <v>28</v>
+      </c>
+      <c r="G55" t="n">
+        <v>26</v>
+      </c>
+      <c r="H55" t="n">
+        <v>17</v>
+      </c>
+      <c r="I55" t="n">
+        <v>97</v>
+      </c>
+      <c r="J55" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.212426242642917</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.324141395753385</v>
+      </c>
+      <c r="E56" t="n">
+        <v>31</v>
+      </c>
+      <c r="F56" t="n">
+        <v>24</v>
+      </c>
+      <c r="G56" t="n">
+        <v>27</v>
+      </c>
+      <c r="H56" t="n">
+        <v>27</v>
+      </c>
+      <c r="I56" t="n">
+        <v>109</v>
+      </c>
+      <c r="J56" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.137069961981522</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.154046756398637</v>
+      </c>
+      <c r="E57" t="n">
+        <v>33</v>
+      </c>
+      <c r="F57" t="n">
+        <v>23</v>
+      </c>
+      <c r="G57" t="n">
+        <v>33</v>
+      </c>
+      <c r="H57" t="n">
+        <v>13</v>
+      </c>
+      <c r="I57" t="n">
+        <v>102</v>
+      </c>
+      <c r="J57" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.361899878713549</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.10559365869538</v>
+      </c>
+      <c r="E58" t="n">
+        <v>20</v>
+      </c>
+      <c r="F58" t="n">
+        <v>25</v>
+      </c>
+      <c r="G58" t="n">
+        <v>24</v>
+      </c>
+      <c r="H58" t="n">
+        <v>18</v>
+      </c>
+      <c r="I58" t="n">
+        <v>87</v>
+      </c>
+      <c r="J58" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.480516674124118</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.160948398698738</v>
+      </c>
+      <c r="E59" t="n">
+        <v>32</v>
+      </c>
+      <c r="F59" t="n">
+        <v>24</v>
+      </c>
+      <c r="G59" t="n">
+        <v>28</v>
+      </c>
+      <c r="H59" t="n">
+        <v>20</v>
+      </c>
+      <c r="I59" t="n">
+        <v>104</v>
+      </c>
+      <c r="J59" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.0577600236182012</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.535600063635811</v>
+      </c>
+      <c r="E60" t="n">
+        <v>21</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28</v>
+      </c>
+      <c r="G60" t="n">
+        <v>25</v>
+      </c>
+      <c r="H60" t="n">
+        <v>22</v>
+      </c>
+      <c r="I60" t="n">
+        <v>96</v>
+      </c>
+      <c r="J60" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.822563775755623</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.18715177640133</v>
+      </c>
+      <c r="E61" t="n">
+        <v>25</v>
+      </c>
+      <c r="F61" t="n">
+        <v>27</v>
+      </c>
+      <c r="G61" t="n">
+        <v>32</v>
+      </c>
+      <c r="H61" t="n">
+        <v>17</v>
+      </c>
+      <c r="I61" t="n">
+        <v>101</v>
+      </c>
+      <c r="J61" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.150173441326178</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.376978396415808</v>
+      </c>
+      <c r="E62" t="n">
+        <v>21</v>
+      </c>
+      <c r="F62" t="n">
+        <v>29</v>
+      </c>
+      <c r="G62" t="n">
+        <v>23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>24</v>
+      </c>
+      <c r="I62" t="n">
+        <v>97</v>
+      </c>
+      <c r="J62" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.641384730193389</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.102764090664768</v>
+      </c>
+      <c r="E63" t="n">
+        <v>35</v>
+      </c>
+      <c r="F63" t="n">
+        <v>28</v>
+      </c>
+      <c r="G63" t="n">
+        <v>32</v>
+      </c>
+      <c r="H63" t="n">
+        <v>20</v>
+      </c>
+      <c r="I63" t="n">
+        <v>115</v>
+      </c>
+      <c r="J63" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.240177994432592</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.737675633321936</v>
+      </c>
+      <c r="E64" t="n">
+        <v>26</v>
+      </c>
+      <c r="F64" t="n">
+        <v>18</v>
+      </c>
+      <c r="G64" t="n">
+        <v>23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>18</v>
+      </c>
+      <c r="I64" t="n">
+        <v>85</v>
+      </c>
+      <c r="J64" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.612233367892623</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.310770146903783</v>
+      </c>
+      <c r="E65" t="n">
+        <v>24</v>
+      </c>
+      <c r="F65" t="n">
+        <v>23</v>
+      </c>
+      <c r="G65" t="n">
+        <v>26</v>
+      </c>
+      <c r="H65" t="n">
+        <v>22</v>
+      </c>
+      <c r="I65" t="n">
+        <v>95</v>
+      </c>
+      <c r="J65" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.38484582298304</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.0662082495120251</v>
+      </c>
+      <c r="E66" t="n">
+        <v>24</v>
+      </c>
+      <c r="F66" t="n">
+        <v>29</v>
+      </c>
+      <c r="G66" t="n">
+        <v>25</v>
+      </c>
+      <c r="H66" t="n">
+        <v>15</v>
+      </c>
+      <c r="I66" t="n">
+        <v>93</v>
+      </c>
+      <c r="J66" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.100011284276903</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.274835558870479</v>
+      </c>
+      <c r="E67" t="n">
+        <v>25</v>
+      </c>
+      <c r="F67" t="n">
+        <v>31</v>
+      </c>
+      <c r="G67" t="n">
+        <v>27</v>
+      </c>
+      <c r="H67" t="n">
+        <v>16</v>
+      </c>
+      <c r="I67" t="n">
+        <v>99</v>
+      </c>
+      <c r="J67" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.452604237075509</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.104740919515731</v>
+      </c>
+      <c r="E68" t="n">
+        <v>17</v>
+      </c>
+      <c r="F68" t="n">
+        <v>24</v>
+      </c>
+      <c r="G68" t="n">
+        <v>24</v>
+      </c>
+      <c r="H68" t="n">
+        <v>17</v>
+      </c>
+      <c r="I68" t="n">
+        <v>82</v>
+      </c>
+      <c r="J68" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.862418093495704</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.241032524105601</v>
+      </c>
+      <c r="E69" t="n">
+        <v>21</v>
+      </c>
+      <c r="F69" t="n">
+        <v>27</v>
+      </c>
+      <c r="G69" t="n">
+        <v>29</v>
+      </c>
+      <c r="H69" t="n">
+        <v>18</v>
+      </c>
+      <c r="I69" t="n">
+        <v>95</v>
+      </c>
+      <c r="J69" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.416554813461362</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.208277406730681</v>
+      </c>
+      <c r="E70" t="n">
+        <v>34</v>
+      </c>
+      <c r="F70" t="n">
+        <v>22</v>
+      </c>
+      <c r="G70" t="n">
+        <v>27</v>
+      </c>
+      <c r="H70" t="n">
+        <v>18</v>
+      </c>
+      <c r="I70" t="n">
+        <v>101</v>
+      </c>
+      <c r="J70" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.250872609175685</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.317321886576111</v>
+      </c>
+      <c r="E71" t="n">
+        <v>25</v>
+      </c>
+      <c r="F71" t="n">
+        <v>29</v>
+      </c>
+      <c r="G71" t="n">
+        <v>31</v>
+      </c>
+      <c r="H71" t="n">
+        <v>28</v>
+      </c>
+      <c r="I71" t="n">
+        <v>113</v>
+      </c>
+      <c r="J71" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.581537212491493</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0573315688543212</v>
+      </c>
+      <c r="E72" t="n">
+        <v>23</v>
+      </c>
+      <c r="F72" t="n">
+        <v>29</v>
+      </c>
+      <c r="G72" t="n">
+        <v>26</v>
+      </c>
+      <c r="H72" t="n">
+        <v>19</v>
+      </c>
+      <c r="I72" t="n">
+        <v>97</v>
+      </c>
+      <c r="J72" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.289488001663609</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.14179959722035</v>
+      </c>
+      <c r="E73" t="n">
+        <v>31</v>
+      </c>
+      <c r="F73" t="n">
+        <v>33</v>
+      </c>
+      <c r="G73" t="n">
+        <v>33</v>
+      </c>
+      <c r="H73" t="n">
+        <v>19</v>
+      </c>
+      <c r="I73" t="n">
+        <v>116</v>
+      </c>
+      <c r="J73" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.117068421323486</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.064736047706298</v>
+      </c>
+      <c r="E74" t="n">
+        <v>17</v>
+      </c>
+      <c r="F74" t="n">
+        <v>30</v>
+      </c>
+      <c r="G74" t="n">
+        <v>25</v>
+      </c>
+      <c r="H74" t="n">
+        <v>24</v>
+      </c>
+      <c r="I74" t="n">
+        <v>96</v>
+      </c>
+      <c r="J74" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.0469047236161739</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.142069157218656</v>
+      </c>
+      <c r="E75" t="n">
+        <v>19</v>
+      </c>
+      <c r="F75" t="n">
+        <v>32</v>
+      </c>
+      <c r="G75" t="n">
+        <v>22</v>
+      </c>
+      <c r="H75" t="n">
+        <v>14</v>
+      </c>
+      <c r="I75" t="n">
+        <v>87</v>
+      </c>
+      <c r="J75" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.136909276722588</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0262033777025918</v>
+      </c>
+      <c r="E76" t="n">
+        <v>27</v>
+      </c>
+      <c r="F76" t="n">
+        <v>32</v>
+      </c>
+      <c r="G76" t="n">
+        <v>32</v>
+      </c>
+      <c r="H76" t="n">
+        <v>28</v>
+      </c>
+      <c r="I76" t="n">
+        <v>119</v>
+      </c>
+      <c r="J76" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.18963740264564</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.319648618054847</v>
+      </c>
+      <c r="E77" t="n">
+        <v>23</v>
+      </c>
+      <c r="F77" t="n">
+        <v>23</v>
+      </c>
+      <c r="G77" t="n">
+        <v>23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>15</v>
+      </c>
+      <c r="I77" t="n">
+        <v>84</v>
+      </c>
+      <c r="J77" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.469661374122091</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.102414188036995</v>
+      </c>
+      <c r="E78" t="n">
+        <v>33</v>
+      </c>
+      <c r="F78" t="n">
+        <v>25</v>
+      </c>
+      <c r="G78" t="n">
+        <v>25</v>
+      </c>
+      <c r="H78" t="n">
+        <v>16</v>
+      </c>
+      <c r="I78" t="n">
+        <v>99</v>
+      </c>
+      <c r="J78" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.316704214443393</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0350818488536558</v>
+      </c>
+      <c r="E79" t="n">
+        <v>34</v>
+      </c>
+      <c r="F79" t="n">
+        <v>26</v>
+      </c>
+      <c r="G79" t="n">
+        <v>35</v>
+      </c>
+      <c r="H79" t="n">
+        <v>26</v>
+      </c>
+      <c r="I79" t="n">
+        <v>121</v>
+      </c>
+      <c r="J79" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.582385781323031</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.0608609421404787</v>
+      </c>
+      <c r="E80" t="n">
+        <v>24</v>
+      </c>
+      <c r="F80" t="n">
+        <v>30</v>
+      </c>
+      <c r="G80" t="n">
+        <v>27</v>
+      </c>
+      <c r="H80" t="n">
+        <v>17</v>
+      </c>
+      <c r="I80" t="n">
+        <v>98</v>
+      </c>
+      <c r="J80" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.377247956414114</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.0408594014824421</v>
+      </c>
+      <c r="E81" t="n">
+        <v>14</v>
+      </c>
+      <c r="F81" t="n">
+        <v>20</v>
+      </c>
+      <c r="G81" t="n">
+        <v>21</v>
+      </c>
+      <c r="H81" t="n">
+        <v>20</v>
+      </c>
+      <c r="I81" t="n">
+        <v>75</v>
+      </c>
+      <c r="J81" t="n">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -7798,34 +10802,1014 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.33424408184312</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.565479237772304</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.084377884058998</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.691168097395033</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.448930246370548</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.562253530231749</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.374511223669133</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.510629606378542</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.413065181769588</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>67</v>
       </c>
-      <c r="C53" t="n">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.504580964830864</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.218797487246842</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.113140705550355</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.350966488597776</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.532940584872639</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.479196858952174</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.533578375079933</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.40529099697406</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.430309621473586</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.731807374180608</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.606449631061968</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.691309685474393</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.819193769124588</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.212904672635366</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.788356122792286</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.683267536358661</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.795758767599038</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.401609664451249</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.626768597394849</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.882108554271954</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.853935503455567</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.316739994597872</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.531782673093626</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.226347954672536</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.631712777189008</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.420017219014503</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.653218950354756</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0143665705306872</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.107446265329291</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.384577927854444</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.644128838652885</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.618852747755276</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.462184408249407</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.768404602275763</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.640400533637742</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.642575463121999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.291249038578776</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.303642193313584</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0412042821715165</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.108465228909328</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0304149532336237</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.510112785336185</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.162048195828152</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.421075960533259</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.101035876126244</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.761645356507255</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.330232768086594</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.54794902952539</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.525240700039188</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.328607246974801</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.543075386641705</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.587595560057671</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.148936170212766</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.231869447880084</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.551118694390571</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.882033643775087</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.622171016838255</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.1455213750218</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.291729982995789</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.13912166872805</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.650188509617954</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.606449631061968</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.610959809971918</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.319704703132186</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.63660701407923</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.103695169473043</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.134929350828058</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.626670144980155</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.517795432574209</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0578243309582912</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.302174250496149</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.0287598654271525</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.531368931324057</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.803913301136808</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.41478067789217</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.707319093691313</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.86346243455435</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.808223859120487</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.29277002188456</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.729324957489473</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.550160642915358</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.200838578101374</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.169310578851698</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.348485473495226</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.614636297152859</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.200571327712729</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.486439643881201</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.033569145604615</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.676608505732517</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.195965450417405</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.792181502834979</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.609721374677711</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.219241082885247</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.701408480280322</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.5353916693329</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.88249750329277</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.744233805786288</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.541566092439763</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.710071602496726</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.755840344754118</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.654953146327808</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.300326619585032</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.567640584220447</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.77664481985242</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.348666929104239</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.729958877606968</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.121089869924121</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="n">
         <v>0.466713594073857</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D66" t="n">
         <v>0.714649870871103</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E66" t="n">
         <v>0.447619784135462</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F66" t="n">
         <v>0.522541358013276</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G66" t="n">
         <v>0.527759396560251</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H66" t="n">
         <v>0.788356122792286</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I66" t="n">
         <v>0.629418697542837</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J66" t="n">
         <v>0.742926594561086</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K66" t="n">
         <v>0.618064232572747</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0161690416690889</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.301435862953204</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.729343409500393</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.178940767324124</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.706089507201044</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.864126412275354</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.524481559398295</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.782793687664131</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.635000635000952</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.113183291683622</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.731334120958647</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.0541530361073882</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.119774753438199</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.715795660266982</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.201319057990068</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.177324138986715</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.74376843799781</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-0.337052648822912</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.726802000000792</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.544094760991495</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.445615880243192</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.352605998612812</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.656878498431885</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.556486674912202</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.411898869436072</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.657504652822002</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.716340671490317</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.662930708432643</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0551317846419971</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.808223859120487</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.516635040145248</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.283267426777223</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.289805474447035</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.849971684015611</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.489608325150561</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.82956135578434</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0626224291085149</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.70563862312983</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.797016770218749</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.295540231644524</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.793167915100802</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.666836782433213</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.623085302440723</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.918983172881238</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.445368139502909</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.15621575254928</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.574388279860355</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.654790341621931</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0718328526534359</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.782602053480918</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.718657492016829</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.552306089778777</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.709633010594232</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.125765629104506</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0448962970811775</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.46236559139785</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.429779997631186</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.12406867254308</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.266397713833066</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.434613493680176</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.398958066290551</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.363269609772362</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.418846661621598</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.358780440179393</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.263994979617495</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.295540231644524</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.508743905019171</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.399351297919306</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.0618633413086769</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.561383796967834</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.405526484945668</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.214793159805948</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.271000721514184</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.514236194960127</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.480641282851097</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.107403462313818</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.788079833784706</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.591752817678311</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.434648173468398</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.65991201759609</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.411909254469326</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.218797487246842</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.615793344976683</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0557799104115097</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.599645285218775</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.818391653703673</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.103456409467394</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.640506616984523</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.587605960347241</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.230635121078538</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.74468085106383</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.445368139502909</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.134967843524222</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.0439799497133542</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.68065014844261</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.341817345153847</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.513856019453757</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.154770825106207</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.00496628167060298</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.717560880358786</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.607708496833726</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.560112033611204</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.685752278582737</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.827652999551161</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.538418442576203</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.720465332806002</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.86650693031805</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.602184804680165</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.824854035138136</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.575511151031308</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.581279316480465</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.68020091836668</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.570902656427974</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0477491545490171</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.841763384980756</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.889000889001333</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.13760659224649</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.523746388200711</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.430309621473586</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.120445263775232</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.75017077891671</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.0530911087801566</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.528624053803201</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.643513591496877</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.508000508000762</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.35624238349015</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.835619044553731</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.510112785336185</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.626224291085149</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.870758578999572</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.674789761511119</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.442807442770048</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.686555481228748</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.733235575106766</v>
       </c>
     </row>
   </sheetData>
@@ -9667,34 +13651,1014 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.33333333333333</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.23076923076923</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3.8125</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.06666666666667</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.0625</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.26666666666667</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>67</v>
       </c>
-      <c r="C53" t="n">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.0625</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.9375</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.73333333333333</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.64285714285714</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.93333333333333</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.6875</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.53333333333333</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6.14285714285714</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.53846153846154</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.57142857142857</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4.1875</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.0625</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.28571428571429</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.08333333333333</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.42857142857143</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.78571428571429</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.84615384615385</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.57142857142857</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.73333333333333</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.09090909090909</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.66666666666667</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.81818181818182</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.46666666666667</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.33333333333333</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4.06666666666667</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.9375</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.92857142857143</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.4375</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.53333333333333</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.46153846153846</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.92857142857143</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.71428571428571</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.0625</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.53333333333333</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.57142857142857</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.13333333333333</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.64285714285714</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.69230769230769</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4.06666666666667</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3.9375</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.0625</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.1875</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.4375</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.3125</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5.26666666666667</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.64285714285714</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.57142857142857</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.21428571428571</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.28571428571429</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.0625</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4.42857142857143</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.5625</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="n">
         <v>4.14285714285714</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D66" t="n">
         <v>4.46666666666667</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E66" t="n">
         <v>4.6875</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F66" t="n">
         <v>4.0625</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G66" t="n">
         <v>4.06666666666667</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H66" t="n">
         <v>4.1875</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I66" t="n">
         <v>3.86666666666667</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J66" t="n">
         <v>4.0625</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K66" t="n">
         <v>3.875</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.85714285714286</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.1875</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.4375</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.3125</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.64285714285714</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.66666666666667</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.66666666666667</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.93333333333333</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.28571428571429</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.66666666666667</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3.0625</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.93333333333333</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3.86666666666667</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.73333333333333</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.93333333333333</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.5625</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.66666666666667</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.73333333333333</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.1875</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4.5625</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.66666666666667</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.13333333333333</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.8125</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.33333333333333</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.5625</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.66666666666667</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.6875</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.69230769230769</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.61538461538461</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.14285714285714</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.4375</v>
+      </c>
+      <c r="K73" t="n">
+        <v>4.06666666666667</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.33333333333333</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.46153846153846</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.5625</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.15384615384615</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.73333333333333</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5.53333333333333</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.72727272727273</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.8125</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.8125</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.1875</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.38461538461538</v>
+      </c>
+      <c r="K75" t="n">
+        <v>4.0625</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5.71428571428571</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5.0625</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4.86666666666667</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4.64285714285714</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.21428571428571</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.78571428571429</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3.53846153846154</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3.07692307692308</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.64285714285714</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3.3125</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.93333333333333</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5.13333333333333</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.46666666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>4.4375</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.0625</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3.8125</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.8125</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.13333333333333</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.0625</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.9375</v>
       </c>
     </row>
   </sheetData>
@@ -11536,34 +16500,1014 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.3125</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.0625</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5.3125</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.4375</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>67</v>
       </c>
-      <c r="C53" t="n">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.6875</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.5625</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.9375</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.3125</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.3125</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4.8125</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.8125</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.8125</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5.0625</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.3125</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.0625</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.4375</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4.3125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.1875</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.3125</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.4375</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6.6875</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5.4375</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6.625</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.1875</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5.6875</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6.375</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5.3125</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.6875</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.0625</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.6875</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5.8125</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.9375</v>
+      </c>
+      <c r="J61" t="n">
         <v>5.25</v>
       </c>
-      <c r="D53" t="n">
+      <c r="K61" t="n">
+        <v>4.9375</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.0625</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.8125</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4.1875</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5.6875</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.3125</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K63" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.0625</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.4375</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.5625</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.4375</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5.5625</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.6875</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.9375</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.1875</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.1875</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="D66" t="n">
         <v>5.875</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E66" t="n">
         <v>2.75</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F66" t="n">
         <v>4.1875</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G66" t="n">
         <v>4.5</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H66" t="n">
         <v>3.375</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I66" t="n">
         <v>3.5</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J66" t="n">
         <v>4.625</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K66" t="n">
         <v>3.0625</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.8125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5.1875</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6.125</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4.9375</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="J67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.4375</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.8125</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4.1875</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.0625</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5.9375</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.3125</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5.8125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.9375</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7.5625</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.9375</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6.625</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7.625</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6.1875</v>
+      </c>
+      <c r="J70" t="n">
+        <v>7.8125</v>
+      </c>
+      <c r="K70" t="n">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.9375</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.1875</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.9375</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.125</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.0625</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6.0625</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6.125</v>
+      </c>
+      <c r="J73" t="n">
+        <v>7.4375</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7.0625</v>
+      </c>
+      <c r="H74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="J74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>6.1875</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.0625</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4.8125</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6.0625</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5.4375</v>
+      </c>
+      <c r="K75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5.1875</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4.4375</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.4375</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.8125</v>
+      </c>
+      <c r="K76" t="n">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.6875</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4.9375</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.3125</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5.1875</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4.8125</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5.0625</v>
+      </c>
+      <c r="K77" t="n">
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.6875</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5.8125</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.8125</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5.8125</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>6.4375</v>
+      </c>
+      <c r="K79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.8125</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4.9375</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4.4375</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -11588,10 +17532,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -11602,7 +17546,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
         <v>26</v>
@@ -11616,7 +17560,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D3" t="n">
         <v>24</v>
@@ -11630,7 +17574,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D4" t="n">
         <v>22</v>
@@ -11644,7 +17588,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D5" t="n">
         <v>26</v>
@@ -11658,7 +17602,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n">
         <v>20</v>
@@ -11672,7 +17616,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n">
         <v>25</v>
@@ -11686,7 +17630,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n">
         <v>24</v>
@@ -11700,7 +17644,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D9" t="n">
         <v>24</v>
@@ -11714,7 +17658,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D10" t="n">
         <v>23</v>
@@ -11728,7 +17672,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D11" t="n">
         <v>23</v>
@@ -11742,7 +17686,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D12" t="n">
         <v>25</v>
@@ -11756,7 +17700,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D13" t="n">
         <v>24</v>
@@ -11770,7 +17714,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D14" t="n">
         <v>27</v>
@@ -11784,7 +17728,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D15" t="n">
         <v>25</v>
@@ -11798,7 +17742,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D16" t="n">
         <v>23</v>
@@ -11812,7 +17756,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D17" t="n">
         <v>27</v>
@@ -11826,7 +17770,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D18" t="n">
         <v>24</v>
@@ -11840,7 +17784,7 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D19" t="n">
         <v>20</v>
@@ -11854,7 +17798,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D20" t="n">
         <v>22</v>
@@ -11868,7 +17812,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D21" t="n">
         <v>23</v>
@@ -11882,7 +17826,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D22" t="n">
         <v>23</v>
@@ -11896,7 +17840,7 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D23" t="n">
         <v>26</v>
@@ -11910,7 +17854,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D24" t="n">
         <v>33</v>
@@ -11924,7 +17868,7 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D25" t="n">
         <v>26</v>
@@ -11938,7 +17882,7 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D26" t="n">
         <v>23</v>
@@ -11952,7 +17896,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D27" t="n">
         <v>23</v>
@@ -11966,7 +17910,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D28" t="n">
         <v>23</v>
@@ -11980,7 +17924,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D29" t="n">
         <v>23</v>
@@ -11994,7 +17938,7 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D30" t="n">
         <v>23</v>
@@ -12008,7 +17952,7 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D31" t="n">
         <v>23</v>
@@ -12022,7 +17966,7 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D32" t="n">
         <v>23</v>
@@ -12036,7 +17980,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D33" t="n">
         <v>23</v>
@@ -12050,7 +17994,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D34" t="n">
         <v>23</v>
@@ -12064,7 +18008,7 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D35" t="n">
         <v>23</v>
@@ -12078,7 +18022,7 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D36" t="n">
         <v>24</v>
@@ -12092,7 +18036,7 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D37" t="n">
         <v>23</v>
@@ -12106,7 +18050,7 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D38" t="n">
         <v>23</v>
@@ -12120,7 +18064,7 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D39" t="n">
         <v>24</v>
@@ -12134,7 +18078,7 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D40" t="n">
         <v>24</v>
@@ -12148,7 +18092,7 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D41" t="n">
         <v>23</v>
@@ -12162,7 +18106,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D42" t="n">
         <v>24</v>
@@ -12176,7 +18120,7 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D43" t="n">
         <v>24</v>
@@ -12190,7 +18134,7 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D44" t="n">
         <v>23</v>
@@ -12204,7 +18148,7 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D45" t="n">
         <v>24</v>
@@ -12218,7 +18162,7 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D46" t="n">
         <v>23</v>
@@ -12232,7 +18176,7 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D47" t="n">
         <v>24</v>
@@ -12246,7 +18190,7 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D48" t="n">
         <v>27</v>
@@ -12260,7 +18204,7 @@
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D49" t="n">
         <v>22</v>
@@ -12274,7 +18218,7 @@
         <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D50" t="n">
         <v>22</v>
@@ -12288,7 +18232,7 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D51" t="n">
         <v>30</v>
@@ -12302,7 +18246,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D52" t="n">
         <v>19</v>
@@ -12310,16 +18254,408 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
         <v>66</v>
       </c>
       <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
         <v>79</v>
       </c>
-      <c r="D53" t="n">
+      <c r="C66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
